--- a/Result/check1/2025-03-19.xlsx
+++ b/Result/check1/2025-03-19.xlsx
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
